--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/41_İzmir_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/41_İzmir_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1178CF-AD29-47C3-9B2A-03AB34C68E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AF6EA2-F53F-4760-B3F7-ACAEA24C62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{F6E3BC2E-11F4-46A6-B9C4-B0B2AC474C94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{659C4369-E793-4DB7-8EAE-04E01181D217}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0E0E6DF2-F0A2-4FA4-A9D0-17C78D4A732C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{15B54AF5-35A6-468B-8350-1118F5900E77}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{54A3C5F4-9667-4BE4-9480-FCD3C7E5BCE7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{075E704F-71FE-4438-BADB-BFB486FCE5A0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2AEC5407-9612-4103-ACDB-AD7D470923B9}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{82DEF0ED-DECF-49FF-8F01-7B2C2B1F106B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{87DBF074-4229-448A-86C0-800F07D1D7CD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E812BBEA-110D-4F0B-9DE8-67B49520402E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{930209EF-E752-4309-8A64-206F3093B842}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F4D7E01F-0925-4935-AE6E-80B2A44FD053}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E9B2E53A-7B53-44AC-844A-C5EBA8DC609F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{AA5F512D-D0A6-49F4-AB80-9329DBB9C5A4}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{ADECC51D-A296-4053-BC6D-42EEE960596F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{122667AF-6B72-4FD5-B7E0-666FFB6D616F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE83FD9E-0056-4005-ACED-062E293C6FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B1E65-19FC-4DE1-B839-80721307499E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1861E44E-838A-40CA-9858-463E632701FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C4480-BB8C-4D56-9C21-3CFD37B5572B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3916,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAC2E2C-B876-49C4-A33A-E1FF1E829389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E508E49-036C-4420-BDA6-FC8DF6362B33}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5203,7 +5203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDDF4CB-8049-4128-9569-86459CA5BEDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D2B62B-177A-4BA9-905B-A9F2283066ED}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6486,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F34D0-8B4C-405D-815B-CEB633573B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48ED4E5-4F03-4923-91D0-A7333215E5E6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7817,7 +7817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832F73B-8B36-4E56-B769-38DA25AEC12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653D6CBD-B357-4686-A08C-2EA41839D7AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9148,7 +9148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F109A846-3FD0-4AEF-87AA-57012490A757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B316601-3710-4520-91F5-94CDED870935}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10479,7 +10479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7592A0-BB01-441B-A10D-80579E8044ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74992B3-1AC6-42B7-ABB4-C9DFD19AD9CB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11810,7 +11810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95173386-9442-43D3-9ED7-52F9C6D5FB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A37562F-AFCD-4002-8ACD-67E5EFCA98D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13141,7 +13141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65665723-6137-43B1-A505-7FF50CF86EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF25C88-6AB4-44B6-B3F3-0F3580AC39E5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14452,7 +14452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A459F8A-E5DF-4D45-8CA7-7EAE104B4393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C1DD3E-D9A3-4319-BD2C-647E07C7970E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15763,7 +15763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC3371F-880F-43CA-8941-A07FC1378A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD29EB-CBC8-42AA-B94C-040174F6E2C2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
